--- a/biology/Botanique/Klasea/Klasea.xlsx
+++ b/biology/Botanique/Klasea/Klasea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Klasea est un genre de plantes à fleurs de la famille des Asteraceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (20 avril 2019)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (20 avril 2019) :
 Klasea algarbiensis (Cantó) Cantó
 Klasea aphyllopoda (Iljin) Holub
 Klasea aznavouriana (Bornm.) Greuter &amp; Wagenitz
@@ -571,7 +585,7 @@
 Klasea turkica Yild.
 Klasea viciifolia (Boiss. &amp; Hausskn.) L. Martins
 Klasea yunus-emrei B. Dogan, Ocak &amp; A. Duran
-Selon The Plant List            (20 avril 2019)[3] :
+Selon The Plant List            (20 avril 2019) :
 Klasea alcalae (Coss.) J.Holub
 Klasea aznavouriana (Bornm.) Greuter &amp; Wagenitz
 Klasea baetica (Boiss. ex DC.) Holub
@@ -601,7 +615,7 @@
 Klasea quinquefolia (Willd.) Greuter &amp; Wagenitz
 Klasea radiata (Waldst. &amp; Kit.) Á.Löve &amp; D.Löve
 Klasea serratuloides (DC.) Greuter &amp; Wagenitz
-Selon Tropicos                                           (20 avril 2019)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (20 avril 2019) (Attention liste brute contenant possiblement des synonymes) :
 Klasea algida (Iljin) Hidalgo
 Klasea aphyllopoda Holub
 Klasea cardunculus (Pall.) Holub
